--- a/data/pca/factorExposure/factorExposure_2012-06-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-07.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01723742761674038</v>
+        <v>0.02173166926163817</v>
       </c>
       <c r="C2">
-        <v>-0.0318070497053839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02473185693057553</v>
+      </c>
+      <c r="D2">
+        <v>0.002297374650252607</v>
+      </c>
+      <c r="E2">
+        <v>0.02773761208425418</v>
+      </c>
+      <c r="F2">
+        <v>-0.007059075464688178</v>
+      </c>
+      <c r="G2">
+        <v>0.0094859773275522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06869251373462057</v>
+        <v>0.07882729196561414</v>
       </c>
       <c r="C4">
-        <v>-0.06410794155972138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04162900189614394</v>
+      </c>
+      <c r="D4">
+        <v>-0.07025105591585722</v>
+      </c>
+      <c r="E4">
+        <v>0.0009614967159164216</v>
+      </c>
+      <c r="F4">
+        <v>-0.03452555862341517</v>
+      </c>
+      <c r="G4">
+        <v>-0.005299309973987109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09847090922435942</v>
+        <v>0.1153838713177352</v>
       </c>
       <c r="C6">
-        <v>-0.06878995093617557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04110445644026513</v>
+      </c>
+      <c r="D6">
+        <v>-0.01264874669671934</v>
+      </c>
+      <c r="E6">
+        <v>-0.008172258253813867</v>
+      </c>
+      <c r="F6">
+        <v>-0.04667685305193087</v>
+      </c>
+      <c r="G6">
+        <v>0.01355431645692321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04607990158784291</v>
+        <v>0.05772579271365198</v>
       </c>
       <c r="C7">
-        <v>-0.03345903889209332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02379909423804829</v>
+      </c>
+      <c r="D7">
+        <v>-0.03671712952944674</v>
+      </c>
+      <c r="E7">
+        <v>0.02040964947806774</v>
+      </c>
+      <c r="F7">
+        <v>-0.03831147939668394</v>
+      </c>
+      <c r="G7">
+        <v>-0.04284591204148808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03427058790549749</v>
+        <v>0.0373288866159729</v>
       </c>
       <c r="C8">
-        <v>-0.02692862241775038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01499866234859345</v>
+      </c>
+      <c r="D8">
+        <v>-0.03725233090806417</v>
+      </c>
+      <c r="E8">
+        <v>0.004765168720784671</v>
+      </c>
+      <c r="F8">
+        <v>-0.05683985496617212</v>
+      </c>
+      <c r="G8">
+        <v>0.02301159502093101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06305346504957934</v>
+        <v>0.07279031722140163</v>
       </c>
       <c r="C9">
-        <v>-0.04864572492463915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02848117218593186</v>
+      </c>
+      <c r="D9">
+        <v>-0.06732131746392875</v>
+      </c>
+      <c r="E9">
+        <v>0.01665580150845122</v>
+      </c>
+      <c r="F9">
+        <v>-0.04040135397929017</v>
+      </c>
+      <c r="G9">
+        <v>-0.005490516617259647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02675201248336462</v>
+        <v>0.03963679238161356</v>
       </c>
       <c r="C10">
-        <v>-0.03837701903985419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04028034456009333</v>
+      </c>
+      <c r="D10">
+        <v>0.1812496830881322</v>
+      </c>
+      <c r="E10">
+        <v>0.04674953075898499</v>
+      </c>
+      <c r="F10">
+        <v>-0.03892466264513113</v>
+      </c>
+      <c r="G10">
+        <v>-0.04388840076424584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06673594171002763</v>
+        <v>0.07559946557545755</v>
       </c>
       <c r="C11">
-        <v>-0.05183420892050684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02898123157256181</v>
+      </c>
+      <c r="D11">
+        <v>-0.06773744541084685</v>
+      </c>
+      <c r="E11">
+        <v>-0.01078262901927044</v>
+      </c>
+      <c r="F11">
+        <v>-0.03516948002878146</v>
+      </c>
+      <c r="G11">
+        <v>-0.02101579180436606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05175409870473325</v>
+        <v>0.06368990229823022</v>
       </c>
       <c r="C12">
-        <v>-0.05234684071324092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03523522954957398</v>
+      </c>
+      <c r="D12">
+        <v>-0.05275175162171782</v>
+      </c>
+      <c r="E12">
+        <v>0.007980467673855249</v>
+      </c>
+      <c r="F12">
+        <v>-0.03213182977312882</v>
+      </c>
+      <c r="G12">
+        <v>-0.01576855075252288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05835325902466851</v>
+        <v>0.06482087974458531</v>
       </c>
       <c r="C13">
-        <v>-0.05381053271378699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03135525453894004</v>
+      </c>
+      <c r="D13">
+        <v>-0.04784767218840744</v>
+      </c>
+      <c r="E13">
+        <v>0.006696686499865395</v>
+      </c>
+      <c r="F13">
+        <v>-0.01660567141816579</v>
+      </c>
+      <c r="G13">
+        <v>-0.006044365064936407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03089778008578084</v>
+        <v>0.03916362227321157</v>
       </c>
       <c r="C14">
-        <v>-0.02883601969218263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02151968157645376</v>
+      </c>
+      <c r="D14">
+        <v>-0.009124112047862471</v>
+      </c>
+      <c r="E14">
+        <v>0.01482221305948167</v>
+      </c>
+      <c r="F14">
+        <v>-0.01649773937807799</v>
+      </c>
+      <c r="G14">
+        <v>0.001435855948995619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03991476462553489</v>
+        <v>0.04172390460642859</v>
       </c>
       <c r="C15">
-        <v>-0.01327504353744973</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002071570624396621</v>
+      </c>
+      <c r="D15">
+        <v>-0.01558649282447578</v>
+      </c>
+      <c r="E15">
+        <v>0.03869498284690522</v>
+      </c>
+      <c r="F15">
+        <v>-0.001563065141963491</v>
+      </c>
+      <c r="G15">
+        <v>0.02121075282880905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05611154363493973</v>
+        <v>0.06404664358440641</v>
       </c>
       <c r="C16">
-        <v>-0.04615142270275278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02781190121586781</v>
+      </c>
+      <c r="D16">
+        <v>-0.06090511747838992</v>
+      </c>
+      <c r="E16">
+        <v>-0.0004267765153370852</v>
+      </c>
+      <c r="F16">
+        <v>-0.03204693395207844</v>
+      </c>
+      <c r="G16">
+        <v>-0.008684982123612531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06123633531907405</v>
+        <v>0.0618684331255864</v>
       </c>
       <c r="C20">
-        <v>-0.03811212541293579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01617070129807932</v>
+      </c>
+      <c r="D20">
+        <v>-0.04930178089323618</v>
+      </c>
+      <c r="E20">
+        <v>0.01512735635437967</v>
+      </c>
+      <c r="F20">
+        <v>-0.02761034550147897</v>
+      </c>
+      <c r="G20">
+        <v>-0.01158019809361197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02580028355797378</v>
+        <v>0.02446045474905429</v>
       </c>
       <c r="C21">
-        <v>-0.0006220706122210602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.008899188179251002</v>
+      </c>
+      <c r="D21">
+        <v>-0.03070396003748218</v>
+      </c>
+      <c r="E21">
+        <v>0.08557491134443843</v>
+      </c>
+      <c r="F21">
+        <v>-0.001322849809687015</v>
+      </c>
+      <c r="G21">
+        <v>0.01586190419108261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06738461880035769</v>
+        <v>0.0640647713337108</v>
       </c>
       <c r="C22">
-        <v>-0.07169905000447176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04112142262630148</v>
+      </c>
+      <c r="D22">
+        <v>-0.1037806230761055</v>
+      </c>
+      <c r="E22">
+        <v>0.6156533357602578</v>
+      </c>
+      <c r="F22">
+        <v>0.1125606689674669</v>
+      </c>
+      <c r="G22">
+        <v>-0.02348143344384493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06857892736553771</v>
+        <v>0.06456421195135563</v>
       </c>
       <c r="C23">
-        <v>-0.07148461089281727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04034143465564926</v>
+      </c>
+      <c r="D23">
+        <v>-0.1045622733106212</v>
+      </c>
+      <c r="E23">
+        <v>0.6148341200142339</v>
+      </c>
+      <c r="F23">
+        <v>0.111770292717726</v>
+      </c>
+      <c r="G23">
+        <v>-0.02188857660993261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06485578837456613</v>
+        <v>0.0755351373855585</v>
       </c>
       <c r="C24">
-        <v>-0.05422638478599959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03245084177654649</v>
+      </c>
+      <c r="D24">
+        <v>-0.065112418107017</v>
+      </c>
+      <c r="E24">
+        <v>0.006940166188547901</v>
+      </c>
+      <c r="F24">
+        <v>-0.04376852838590192</v>
+      </c>
+      <c r="G24">
+        <v>-0.007324389408972347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06436611399538626</v>
+        <v>0.07347460006551555</v>
       </c>
       <c r="C25">
-        <v>-0.05897643002975639</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03674400399634802</v>
+      </c>
+      <c r="D25">
+        <v>-0.06302093981167672</v>
+      </c>
+      <c r="E25">
+        <v>0.01015709768759027</v>
+      </c>
+      <c r="F25">
+        <v>-0.03976462567262937</v>
+      </c>
+      <c r="G25">
+        <v>0.003276969677930562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03817865886562273</v>
+        <v>0.04181070905823352</v>
       </c>
       <c r="C26">
-        <v>-0.01509720260540276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005331340596873181</v>
+      </c>
+      <c r="D26">
+        <v>-0.02318894054004007</v>
+      </c>
+      <c r="E26">
+        <v>0.03383558560581774</v>
+      </c>
+      <c r="F26">
+        <v>-0.02376992951571987</v>
+      </c>
+      <c r="G26">
+        <v>-0.01224622281602537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04968472399907159</v>
+        <v>0.07294938732975867</v>
       </c>
       <c r="C28">
-        <v>-0.07303211167148825</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07382606360967388</v>
+      </c>
+      <c r="D28">
+        <v>0.3223156498488829</v>
+      </c>
+      <c r="E28">
+        <v>0.03669226860076644</v>
+      </c>
+      <c r="F28">
+        <v>-0.04757934594892418</v>
+      </c>
+      <c r="G28">
+        <v>0.031419332725655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03578381239193585</v>
+        <v>0.04431385834096464</v>
       </c>
       <c r="C29">
-        <v>-0.03234746348748048</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02418145885809811</v>
+      </c>
+      <c r="D29">
+        <v>-0.01021378184730416</v>
+      </c>
+      <c r="E29">
+        <v>0.03944297759477738</v>
+      </c>
+      <c r="F29">
+        <v>-0.01677734958812973</v>
+      </c>
+      <c r="G29">
+        <v>-0.0166092124704603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1141535071237832</v>
+        <v>0.1329337935783117</v>
       </c>
       <c r="C30">
-        <v>-0.1008543835110845</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06358976447362116</v>
+      </c>
+      <c r="D30">
+        <v>-0.09514002838714203</v>
+      </c>
+      <c r="E30">
+        <v>0.04162885600957959</v>
+      </c>
+      <c r="F30">
+        <v>-0.02487195806230308</v>
+      </c>
+      <c r="G30">
+        <v>0.01839448940984876</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03761429146022935</v>
+        <v>0.0441332658644649</v>
       </c>
       <c r="C31">
-        <v>-0.02363913515358488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01347347312501164</v>
+      </c>
+      <c r="D31">
+        <v>-0.02822707503279921</v>
+      </c>
+      <c r="E31">
+        <v>0.02095807944742096</v>
+      </c>
+      <c r="F31">
+        <v>-0.01495485288624291</v>
+      </c>
+      <c r="G31">
+        <v>-0.02426598856229016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03276934592923621</v>
+        <v>0.03270065040989181</v>
       </c>
       <c r="C32">
-        <v>-0.02329997771004304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01262335853451282</v>
+      </c>
+      <c r="D32">
+        <v>-0.01243979006045702</v>
+      </c>
+      <c r="E32">
+        <v>0.06600274991612852</v>
+      </c>
+      <c r="F32">
+        <v>-6.953157711366443e-05</v>
+      </c>
+      <c r="G32">
+        <v>0.02625294446003391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0737277095591185</v>
+        <v>0.08813886221040224</v>
       </c>
       <c r="C33">
-        <v>-0.0534489063118723</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03232257208897441</v>
+      </c>
+      <c r="D33">
+        <v>-0.061400826767654</v>
+      </c>
+      <c r="E33">
+        <v>0.01195664770633364</v>
+      </c>
+      <c r="F33">
+        <v>-0.008960354030394855</v>
+      </c>
+      <c r="G33">
+        <v>-0.01536198635887675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05111293600066632</v>
+        <v>0.05807972102973755</v>
       </c>
       <c r="C34">
-        <v>-0.03419608887286779</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01703300224909852</v>
+      </c>
+      <c r="D34">
+        <v>-0.06030437460443099</v>
+      </c>
+      <c r="E34">
+        <v>0.0006141955380480009</v>
+      </c>
+      <c r="F34">
+        <v>-0.02485524609347563</v>
+      </c>
+      <c r="G34">
+        <v>-0.003314154723967089</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03535983283759887</v>
+        <v>0.03995795586593356</v>
       </c>
       <c r="C35">
-        <v>-0.01250007507809014</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.004406300157472926</v>
+      </c>
+      <c r="D35">
+        <v>-0.01296879153251924</v>
+      </c>
+      <c r="E35">
+        <v>0.02183763896895293</v>
+      </c>
+      <c r="F35">
+        <v>-0.002117481907746945</v>
+      </c>
+      <c r="G35">
+        <v>-0.01001969339543202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01806939423204915</v>
+        <v>0.02510912266736742</v>
       </c>
       <c r="C36">
-        <v>-0.01703318788398924</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01207848627786724</v>
+      </c>
+      <c r="D36">
+        <v>-0.0201035393155619</v>
+      </c>
+      <c r="E36">
+        <v>0.0356549501916058</v>
+      </c>
+      <c r="F36">
+        <v>-0.02084231522091413</v>
+      </c>
+      <c r="G36">
+        <v>-0.01688483999181066</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03823589525872415</v>
+        <v>0.04039657094456049</v>
       </c>
       <c r="C38">
-        <v>-0.01050804333900503</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001269353634772215</v>
+      </c>
+      <c r="D38">
+        <v>-0.0139433197639428</v>
+      </c>
+      <c r="E38">
+        <v>0.0596714377030965</v>
+      </c>
+      <c r="F38">
+        <v>0.01799391631685312</v>
+      </c>
+      <c r="G38">
+        <v>0.01460738415988319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08739493798380299</v>
+        <v>0.1023064179536149</v>
       </c>
       <c r="C39">
-        <v>-0.08590777035354009</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05509704815602003</v>
+      </c>
+      <c r="D39">
+        <v>-0.08587490836969702</v>
+      </c>
+      <c r="E39">
+        <v>-0.01239348288953361</v>
+      </c>
+      <c r="F39">
+        <v>-0.02158403813142795</v>
+      </c>
+      <c r="G39">
+        <v>0.01852321460142079</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06429513144713649</v>
+        <v>0.07108767027322092</v>
       </c>
       <c r="C40">
-        <v>-0.05678624390818791</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03472353671065117</v>
+      </c>
+      <c r="D40">
+        <v>-0.01217273995837486</v>
+      </c>
+      <c r="E40">
+        <v>0.02834732458145198</v>
+      </c>
+      <c r="F40">
+        <v>0.0451680865103635</v>
+      </c>
+      <c r="G40">
+        <v>0.06281551180908909</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03903962036377413</v>
+        <v>0.04352244322454484</v>
       </c>
       <c r="C41">
-        <v>-0.01699830358586334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006695913652087074</v>
+      </c>
+      <c r="D41">
+        <v>-0.04073765649426903</v>
+      </c>
+      <c r="E41">
+        <v>0.007444975305983492</v>
+      </c>
+      <c r="F41">
+        <v>0.004552668731409488</v>
+      </c>
+      <c r="G41">
+        <v>0.008833612644264776</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04344871199835473</v>
+        <v>0.05259282007924469</v>
       </c>
       <c r="C43">
-        <v>-0.03458365463457951</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02069100399586288</v>
+      </c>
+      <c r="D43">
+        <v>-0.02944055676079091</v>
+      </c>
+      <c r="E43">
+        <v>0.01772339214323967</v>
+      </c>
+      <c r="F43">
+        <v>-0.01668124961233535</v>
+      </c>
+      <c r="G43">
+        <v>-0.0108998970471155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08979018734335875</v>
+        <v>0.09220052638381257</v>
       </c>
       <c r="C44">
-        <v>-0.09439801959431092</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.0588156299041957</v>
+      </c>
+      <c r="D44">
+        <v>-0.05798969999250436</v>
+      </c>
+      <c r="E44">
+        <v>0.09454229192269137</v>
+      </c>
+      <c r="F44">
+        <v>-0.05902389351472957</v>
+      </c>
+      <c r="G44">
+        <v>0.02758310530321141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02671153733715178</v>
+        <v>0.028218525566656</v>
       </c>
       <c r="C46">
-        <v>-0.01877454498994875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009746402056318999</v>
+      </c>
+      <c r="D46">
+        <v>-0.03327285336699999</v>
+      </c>
+      <c r="E46">
+        <v>0.01709459621442709</v>
+      </c>
+      <c r="F46">
+        <v>-0.01928724951964621</v>
+      </c>
+      <c r="G46">
+        <v>-0.0002839046891540639</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02678451189528725</v>
+        <v>0.0301277245690184</v>
       </c>
       <c r="C47">
-        <v>-0.02139562439739963</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01333289922428741</v>
+      </c>
+      <c r="D47">
+        <v>-0.01574138035896351</v>
+      </c>
+      <c r="E47">
+        <v>0.04930291466075098</v>
+      </c>
+      <c r="F47">
+        <v>-0.01618125153906159</v>
+      </c>
+      <c r="G47">
+        <v>-0.03218237156716328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0284363433778891</v>
+        <v>0.0325678751265352</v>
       </c>
       <c r="C48">
-        <v>-0.02041831313946937</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01144730775536185</v>
+      </c>
+      <c r="D48">
+        <v>-0.03184327987888559</v>
+      </c>
+      <c r="E48">
+        <v>0.04197014453713394</v>
+      </c>
+      <c r="F48">
+        <v>-0.01910282521401034</v>
+      </c>
+      <c r="G48">
+        <v>-0.0001546134720544928</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1491095234889889</v>
+        <v>0.1775299137275035</v>
       </c>
       <c r="C49">
-        <v>-0.09252012440559053</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05208523633496971</v>
+      </c>
+      <c r="D49">
+        <v>-0.01132831357914219</v>
+      </c>
+      <c r="E49">
+        <v>-0.1311006534167648</v>
+      </c>
+      <c r="F49">
+        <v>-0.02098759339305223</v>
+      </c>
+      <c r="G49">
+        <v>-0.04688380268576573</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03357986762934883</v>
+        <v>0.04252883219380733</v>
       </c>
       <c r="C50">
-        <v>-0.02832221048493832</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02078483234494839</v>
+      </c>
+      <c r="D50">
+        <v>-0.03622760797577368</v>
+      </c>
+      <c r="E50">
+        <v>0.04517785703736295</v>
+      </c>
+      <c r="F50">
+        <v>-0.02756100207382251</v>
+      </c>
+      <c r="G50">
+        <v>-0.02239862763258842</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02504672547786767</v>
+        <v>0.02770436466210214</v>
       </c>
       <c r="C51">
-        <v>-0.01541271179002304</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.008316556366815735</v>
+      </c>
+      <c r="D51">
+        <v>-0.02657250285139339</v>
+      </c>
+      <c r="E51">
+        <v>0.0187802999316432</v>
+      </c>
+      <c r="F51">
+        <v>-0.01331950613781133</v>
+      </c>
+      <c r="G51">
+        <v>0.005096029360991545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1372701193487922</v>
+        <v>0.1583708411314823</v>
       </c>
       <c r="C53">
-        <v>-0.0993822184595098</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06437994114823581</v>
+      </c>
+      <c r="D53">
+        <v>-0.02234290485318007</v>
+      </c>
+      <c r="E53">
+        <v>-0.04166901642870025</v>
+      </c>
+      <c r="F53">
+        <v>-0.0139201294609722</v>
+      </c>
+      <c r="G53">
+        <v>-0.003336259969082444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05105521714621272</v>
+        <v>0.05490882569721876</v>
       </c>
       <c r="C54">
-        <v>-0.02951035772294582</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01264508711542479</v>
+      </c>
+      <c r="D54">
+        <v>-0.03427447820344379</v>
+      </c>
+      <c r="E54">
+        <v>0.04526653959953685</v>
+      </c>
+      <c r="F54">
+        <v>-0.01765810748469946</v>
+      </c>
+      <c r="G54">
+        <v>0.004225027369423776</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09165476486546169</v>
+        <v>0.09989864664766843</v>
       </c>
       <c r="C55">
-        <v>-0.06536999039677265</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04040737378218199</v>
+      </c>
+      <c r="D55">
+        <v>-0.0319296507900646</v>
+      </c>
+      <c r="E55">
+        <v>0.006488752861142087</v>
+      </c>
+      <c r="F55">
+        <v>-0.0199580559976272</v>
+      </c>
+      <c r="G55">
+        <v>0.002070612580165097</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1362361243101859</v>
+        <v>0.1577960457041403</v>
       </c>
       <c r="C56">
-        <v>-0.1113676523104774</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07363692594866135</v>
+      </c>
+      <c r="D56">
+        <v>-0.01783137544686156</v>
+      </c>
+      <c r="E56">
+        <v>-0.03920867801733034</v>
+      </c>
+      <c r="F56">
+        <v>-0.04911424599712384</v>
+      </c>
+      <c r="G56">
+        <v>-0.01918261697517211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1144321399116774</v>
+        <v>0.1012431741103123</v>
       </c>
       <c r="C58">
-        <v>-0.02991469965626277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.0105844461430553</v>
+      </c>
+      <c r="D58">
+        <v>-0.05184430365165504</v>
+      </c>
+      <c r="E58">
+        <v>0.1866775528201471</v>
+      </c>
+      <c r="F58">
+        <v>-0.04521203519600281</v>
+      </c>
+      <c r="G58">
+        <v>-0.03807589906162619</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1051844434132518</v>
+        <v>0.147139394547266</v>
       </c>
       <c r="C59">
-        <v>-0.08554078605721535</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08379699186789</v>
+      </c>
+      <c r="D59">
+        <v>0.3539990787630824</v>
+      </c>
+      <c r="E59">
+        <v>0.04890305361484275</v>
+      </c>
+      <c r="F59">
+        <v>0.02069697189572402</v>
+      </c>
+      <c r="G59">
+        <v>-0.03184673317875023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1838899338245391</v>
+        <v>0.2186076057892085</v>
       </c>
       <c r="C60">
-        <v>-0.121088959268401</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07618985818270788</v>
+      </c>
+      <c r="D60">
+        <v>-0.01523248930184321</v>
+      </c>
+      <c r="E60">
+        <v>-0.07387744991181613</v>
+      </c>
+      <c r="F60">
+        <v>-0.03784986004037044</v>
+      </c>
+      <c r="G60">
+        <v>0.02559282863179178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07482594175000691</v>
+        <v>0.0859464972972743</v>
       </c>
       <c r="C61">
-        <v>-0.06404408856722832</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04028681061848103</v>
+      </c>
+      <c r="D61">
+        <v>-0.0654181372429594</v>
+      </c>
+      <c r="E61">
+        <v>-0.01614177802947331</v>
+      </c>
+      <c r="F61">
+        <v>-0.01179187765573167</v>
+      </c>
+      <c r="G61">
+        <v>-0.0178099165399069</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1162264987613224</v>
+        <v>0.1387556263233454</v>
       </c>
       <c r="C62">
-        <v>-0.08465014998319166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05543589265809447</v>
+      </c>
+      <c r="D62">
+        <v>-0.02375832697202222</v>
+      </c>
+      <c r="E62">
+        <v>-0.0550190479075179</v>
+      </c>
+      <c r="F62">
+        <v>-0.01827689771561098</v>
+      </c>
+      <c r="G62">
+        <v>0.02815698057958248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.05026146734173152</v>
+        <v>0.0516425074053281</v>
       </c>
       <c r="C63">
-        <v>-0.03190938177887155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.0160245655953987</v>
+      </c>
+      <c r="D63">
+        <v>-0.03231078290654461</v>
+      </c>
+      <c r="E63">
+        <v>0.04644735410929646</v>
+      </c>
+      <c r="F63">
+        <v>-0.01242729270901315</v>
+      </c>
+      <c r="G63">
+        <v>0.02676900476932131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1071703921369554</v>
+        <v>0.1125816274207184</v>
       </c>
       <c r="C64">
-        <v>-0.04587491519301969</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01422749441684719</v>
+      </c>
+      <c r="D64">
+        <v>-0.04646840706700452</v>
+      </c>
+      <c r="E64">
+        <v>0.02626541157507337</v>
+      </c>
+      <c r="F64">
+        <v>-0.0587404111335952</v>
+      </c>
+      <c r="G64">
+        <v>0.02371700512473987</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1099311699976654</v>
+        <v>0.124460462353892</v>
       </c>
       <c r="C65">
-        <v>-0.06937323431759712</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04007398688891834</v>
+      </c>
+      <c r="D65">
+        <v>-0.009599089859504842</v>
+      </c>
+      <c r="E65">
+        <v>-0.00333071615977128</v>
+      </c>
+      <c r="F65">
+        <v>-0.06132682586819084</v>
+      </c>
+      <c r="G65">
+        <v>0.03125108743979036</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1338173739092609</v>
+        <v>0.1527471361535362</v>
       </c>
       <c r="C66">
-        <v>-0.09648342488451089</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05473019713014485</v>
+      </c>
+      <c r="D66">
+        <v>-0.1178646345327445</v>
+      </c>
+      <c r="E66">
+        <v>-0.05506852815215438</v>
+      </c>
+      <c r="F66">
+        <v>-0.04247536061765902</v>
+      </c>
+      <c r="G66">
+        <v>0.01435035978986271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.07027052332633674</v>
+        <v>0.07557263999190329</v>
       </c>
       <c r="C67">
-        <v>-0.02348676713462645</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.006270387953935102</v>
+      </c>
+      <c r="D67">
+        <v>-0.02593696411134169</v>
+      </c>
+      <c r="E67">
+        <v>0.02519208814363032</v>
+      </c>
+      <c r="F67">
+        <v>-0.001943527530217754</v>
+      </c>
+      <c r="G67">
+        <v>-0.006882282046009769</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05137807055455732</v>
+        <v>0.06724212303310345</v>
       </c>
       <c r="C68">
-        <v>-0.04775617384518606</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04847348391792898</v>
+      </c>
+      <c r="D68">
+        <v>0.2681852107482466</v>
+      </c>
+      <c r="E68">
+        <v>0.05124214081069701</v>
+      </c>
+      <c r="F68">
+        <v>-0.01173472299298878</v>
+      </c>
+      <c r="G68">
+        <v>-0.007436153661001736</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04965819662005892</v>
+        <v>0.05127320613973207</v>
       </c>
       <c r="C69">
-        <v>-0.02613925052465184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.009533960621660804</v>
+      </c>
+      <c r="D69">
+        <v>-0.03367926760074164</v>
+      </c>
+      <c r="E69">
+        <v>0.02219848417358147</v>
+      </c>
+      <c r="F69">
+        <v>-1.166334125052838e-05</v>
+      </c>
+      <c r="G69">
+        <v>-0.01116219552063823</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.00421636782438922</v>
+        <v>0.01678192848277426</v>
       </c>
       <c r="C70">
-        <v>0.00346198607537589</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0004131146868509165</v>
+      </c>
+      <c r="D70">
+        <v>0.007602558058689645</v>
+      </c>
+      <c r="E70">
+        <v>-0.02096588410925824</v>
+      </c>
+      <c r="F70">
+        <v>-0.01267162861498696</v>
+      </c>
+      <c r="G70">
+        <v>-0.01978659117032589</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05481747449824861</v>
+        <v>0.07198744917202098</v>
       </c>
       <c r="C71">
-        <v>-0.04708472923989661</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04809331437106164</v>
+      </c>
+      <c r="D71">
+        <v>0.300061850416415</v>
+      </c>
+      <c r="E71">
+        <v>0.04713696714278361</v>
+      </c>
+      <c r="F71">
+        <v>-0.03364140019036393</v>
+      </c>
+      <c r="G71">
+        <v>0.0001575960861902772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1313737415601333</v>
+        <v>0.1546007430328707</v>
       </c>
       <c r="C72">
-        <v>-0.07877056088025608</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04496502436642475</v>
+      </c>
+      <c r="D72">
+        <v>-0.007936477430736142</v>
+      </c>
+      <c r="E72">
+        <v>-0.08613509587513936</v>
+      </c>
+      <c r="F72">
+        <v>0.162931585028574</v>
+      </c>
+      <c r="G72">
+        <v>0.1125978686992111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2445880488374284</v>
+        <v>0.2757850166950115</v>
       </c>
       <c r="C73">
-        <v>-0.1453100283995081</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07598513822635899</v>
+      </c>
+      <c r="D73">
+        <v>-0.07015049635445052</v>
+      </c>
+      <c r="E73">
+        <v>-0.1909929737085931</v>
+      </c>
+      <c r="F73">
+        <v>-0.06826601152113164</v>
+      </c>
+      <c r="G73">
+        <v>-0.1746946792885909</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07228163257036491</v>
+        <v>0.08956199420067511</v>
       </c>
       <c r="C74">
-        <v>-0.0853354354865179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.0636212713456047</v>
+      </c>
+      <c r="D74">
+        <v>-0.03577197798056977</v>
+      </c>
+      <c r="E74">
+        <v>-0.00651298055144498</v>
+      </c>
+      <c r="F74">
+        <v>0.01120661946638569</v>
+      </c>
+      <c r="G74">
+        <v>-0.0315585443448724</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09325903847244284</v>
+        <v>0.1033090064962075</v>
       </c>
       <c r="C75">
-        <v>-0.06712972194427939</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03535654346515309</v>
+      </c>
+      <c r="D75">
+        <v>-0.01412905961329528</v>
+      </c>
+      <c r="E75">
+        <v>0.0001421743098651597</v>
+      </c>
+      <c r="F75">
+        <v>-0.0550791489098745</v>
+      </c>
+      <c r="G75">
+        <v>-0.01932257870102487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1151949743943483</v>
+        <v>0.1334708325882759</v>
       </c>
       <c r="C76">
-        <v>-0.100096456792991</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06696031984565853</v>
+      </c>
+      <c r="D76">
+        <v>-0.05681437357749223</v>
+      </c>
+      <c r="E76">
+        <v>0.008436732985209798</v>
+      </c>
+      <c r="F76">
+        <v>-0.06275155632795976</v>
+      </c>
+      <c r="G76">
+        <v>-0.005115317848881739</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.1155460320066056</v>
+        <v>0.114394132977801</v>
       </c>
       <c r="C77">
-        <v>-0.06278951568498276</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.02225976414370546</v>
+      </c>
+      <c r="D77">
+        <v>-0.02413302159887121</v>
+      </c>
+      <c r="E77">
+        <v>-0.01550399043237713</v>
+      </c>
+      <c r="F77">
+        <v>-0.2407863929469105</v>
+      </c>
+      <c r="G77">
+        <v>0.8854986722787314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08610097006825725</v>
+        <v>0.1078494680169744</v>
       </c>
       <c r="C78">
-        <v>-0.05087561973441138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03010352042135796</v>
+      </c>
+      <c r="D78">
+        <v>-0.06950550344775466</v>
+      </c>
+      <c r="E78">
+        <v>0.05687419819251349</v>
+      </c>
+      <c r="F78">
+        <v>-0.003836587281847638</v>
+      </c>
+      <c r="G78">
+        <v>0.03539659207751595</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1336082964907517</v>
+        <v>0.1506354457264178</v>
       </c>
       <c r="C79">
-        <v>-0.1039929915741154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06183577665867736</v>
+      </c>
+      <c r="D79">
+        <v>-0.0289331727695968</v>
+      </c>
+      <c r="E79">
+        <v>-0.02537518492833291</v>
+      </c>
+      <c r="F79">
+        <v>-0.02945207327277658</v>
+      </c>
+      <c r="G79">
+        <v>-0.02398877186808706</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03980722978612129</v>
+        <v>0.03821954788462707</v>
       </c>
       <c r="C80">
-        <v>-0.01885397639816955</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.005601938506810885</v>
+      </c>
+      <c r="D80">
+        <v>-0.02810800214058817</v>
+      </c>
+      <c r="E80">
+        <v>-0.004776761698635729</v>
+      </c>
+      <c r="F80">
+        <v>0.02621229836247823</v>
+      </c>
+      <c r="G80">
+        <v>-0.0396137218581577</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1077500990955894</v>
+        <v>0.1197587436936677</v>
       </c>
       <c r="C81">
-        <v>-0.07935398850150134</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.04566535495587626</v>
+      </c>
+      <c r="D81">
+        <v>-0.03223418638519725</v>
+      </c>
+      <c r="E81">
+        <v>-0.008112881847612276</v>
+      </c>
+      <c r="F81">
+        <v>-0.03165971701302563</v>
+      </c>
+      <c r="G81">
+        <v>-0.06265459429976816</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1160702603104433</v>
+        <v>0.1273569494709348</v>
       </c>
       <c r="C82">
-        <v>-0.09226721954078894</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05703146081866712</v>
+      </c>
+      <c r="D82">
+        <v>-0.03514242081790735</v>
+      </c>
+      <c r="E82">
+        <v>-0.02587926944349541</v>
+      </c>
+      <c r="F82">
+        <v>-0.05164084213461668</v>
+      </c>
+      <c r="G82">
+        <v>-0.04832775951071821</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07345711888657948</v>
+        <v>0.07526105991522319</v>
       </c>
       <c r="C83">
-        <v>-0.02362151305509444</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.002234778742002137</v>
+      </c>
+      <c r="D83">
+        <v>-0.04239953860906213</v>
+      </c>
+      <c r="E83">
+        <v>0.01375607345075879</v>
+      </c>
+      <c r="F83">
+        <v>-0.01057231434056606</v>
+      </c>
+      <c r="G83">
+        <v>-0.08112947510700505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02273649876570962</v>
+        <v>0.03293337954458832</v>
       </c>
       <c r="C84">
-        <v>-0.02066672711276036</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01733962726087852</v>
+      </c>
+      <c r="D84">
+        <v>-0.02375474324056551</v>
+      </c>
+      <c r="E84">
+        <v>0.01631157449748115</v>
+      </c>
+      <c r="F84">
+        <v>0.05147438012681874</v>
+      </c>
+      <c r="G84">
+        <v>-0.05957930925203828</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1137608610160015</v>
+        <v>0.1186985000143818</v>
       </c>
       <c r="C85">
-        <v>-0.07907486142103064</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04025060918782682</v>
+      </c>
+      <c r="D85">
+        <v>-0.03198111245000235</v>
+      </c>
+      <c r="E85">
+        <v>0.004324703433222315</v>
+      </c>
+      <c r="F85">
+        <v>-0.07629774698718318</v>
+      </c>
+      <c r="G85">
+        <v>-0.02415797697606535</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0457975530393683</v>
+        <v>0.04946934015820644</v>
       </c>
       <c r="C86">
-        <v>-0.0222025833026469</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.008594631590765274</v>
+      </c>
+      <c r="D86">
+        <v>-0.01641336229161361</v>
+      </c>
+      <c r="E86">
+        <v>0.04849205758349263</v>
+      </c>
+      <c r="F86">
+        <v>-0.01588382323454368</v>
+      </c>
+      <c r="G86">
+        <v>-0.02215538957618793</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1173518656495893</v>
+        <v>0.1235438021457052</v>
       </c>
       <c r="C87">
-        <v>-0.08687639768465039</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04355119824592699</v>
+      </c>
+      <c r="D87">
+        <v>-0.07032900861425036</v>
+      </c>
+      <c r="E87">
+        <v>0.01879656533959158</v>
+      </c>
+      <c r="F87">
+        <v>-0.03223013590328489</v>
+      </c>
+      <c r="G87">
+        <v>0.1016683587953503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05288054716411926</v>
+        <v>0.05906237940992094</v>
       </c>
       <c r="C88">
-        <v>-0.04043942492947727</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.0238436072515189</v>
+      </c>
+      <c r="D88">
+        <v>-0.02609975923448463</v>
+      </c>
+      <c r="E88">
+        <v>0.01981636958446057</v>
+      </c>
+      <c r="F88">
+        <v>-0.01167004879814961</v>
+      </c>
+      <c r="G88">
+        <v>0.01141527646925289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07433332093916892</v>
+        <v>0.1053343898598619</v>
       </c>
       <c r="C89">
-        <v>-0.07471017337609985</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07549141942816402</v>
+      </c>
+      <c r="D89">
+        <v>0.3299589662613462</v>
+      </c>
+      <c r="E89">
+        <v>0.07865033213839895</v>
+      </c>
+      <c r="F89">
+        <v>-0.06380133595380155</v>
+      </c>
+      <c r="G89">
+        <v>-0.02007139790156774</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06568847958529757</v>
+        <v>0.08752232155079774</v>
       </c>
       <c r="C90">
-        <v>-0.06426910541417337</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06168955670255055</v>
+      </c>
+      <c r="D90">
+        <v>0.3078317762036045</v>
+      </c>
+      <c r="E90">
+        <v>0.06477872212767054</v>
+      </c>
+      <c r="F90">
+        <v>0.01303595372825438</v>
+      </c>
+      <c r="G90">
+        <v>-0.006779949736292868</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07612696666897274</v>
+        <v>0.08773634700068066</v>
       </c>
       <c r="C91">
-        <v>-0.06762973772878389</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.0440918929482714</v>
+      </c>
+      <c r="D91">
+        <v>-0.02677812367652454</v>
+      </c>
+      <c r="E91">
+        <v>0.01340938383991946</v>
+      </c>
+      <c r="F91">
+        <v>-0.009780572803252327</v>
+      </c>
+      <c r="G91">
+        <v>-0.0408477776461192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.07836872632720905</v>
+        <v>0.1017174156122234</v>
       </c>
       <c r="C92">
-        <v>-0.0729182978070613</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06799442940585419</v>
+      </c>
+      <c r="D92">
+        <v>0.332356221675159</v>
+      </c>
+      <c r="E92">
+        <v>0.04675409738845961</v>
+      </c>
+      <c r="F92">
+        <v>-0.02668431451089331</v>
+      </c>
+      <c r="G92">
+        <v>-0.003288463726396546</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05889264670225976</v>
+        <v>0.08451915543905891</v>
       </c>
       <c r="C93">
-        <v>-0.06088136568674286</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06386507811646279</v>
+      </c>
+      <c r="D93">
+        <v>0.30217935906585</v>
+      </c>
+      <c r="E93">
+        <v>0.03683148052322517</v>
+      </c>
+      <c r="F93">
+        <v>-0.0378493337085202</v>
+      </c>
+      <c r="G93">
+        <v>0.00528525147923147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1234540366115773</v>
+        <v>0.1275288937815887</v>
       </c>
       <c r="C94">
-        <v>-0.07926822916625598</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03512814231542676</v>
+      </c>
+      <c r="D94">
+        <v>-0.05520920351169488</v>
+      </c>
+      <c r="E94">
+        <v>-0.02286243807928025</v>
+      </c>
+      <c r="F94">
+        <v>-0.03207251189121308</v>
+      </c>
+      <c r="G94">
+        <v>-0.04443214043544979</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1103742879774545</v>
+        <v>0.1187368314023436</v>
       </c>
       <c r="C95">
-        <v>-0.05729605815081294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.0219508735833339</v>
+      </c>
+      <c r="D95">
+        <v>-0.05794657055536021</v>
+      </c>
+      <c r="E95">
+        <v>-0.01519341515808845</v>
+      </c>
+      <c r="F95">
+        <v>-0.0225648626731354</v>
+      </c>
+      <c r="G95">
+        <v>-0.01405911465728691</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.197443144706653</v>
+        <v>0.222248281630153</v>
       </c>
       <c r="C97">
-        <v>-0.07170151053002861</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.0301159073258045</v>
+      </c>
+      <c r="D97">
+        <v>0.0157525249590283</v>
+      </c>
+      <c r="E97">
+        <v>-0.1345343707860565</v>
+      </c>
+      <c r="F97">
+        <v>0.8946519291882075</v>
+      </c>
+      <c r="G97">
+        <v>0.1900358850802274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2347105162814943</v>
+        <v>0.2661128141501958</v>
       </c>
       <c r="C98">
-        <v>-0.1251478464822712</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.05836026004961282</v>
+      </c>
+      <c r="D98">
+        <v>-0.05016149336796907</v>
+      </c>
+      <c r="E98">
+        <v>-0.1636668957719243</v>
+      </c>
+      <c r="F98">
+        <v>-0.0333105915085781</v>
+      </c>
+      <c r="G98">
+        <v>-0.2667054599404466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5657688316834317</v>
+        <v>0.3417266839157603</v>
       </c>
       <c r="C99">
-        <v>0.8140920122297137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9275671220068267</v>
+      </c>
+      <c r="D99">
+        <v>0.07974716080128194</v>
+      </c>
+      <c r="E99">
+        <v>0.042875915295083</v>
+      </c>
+      <c r="F99">
+        <v>-0.04195542086818874</v>
+      </c>
+      <c r="G99">
+        <v>-0.01265329978621652</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03597353802376895</v>
+        <v>0.04436879621133548</v>
       </c>
       <c r="C101">
-        <v>-0.03249982776294905</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.0242204545006722</v>
+      </c>
+      <c r="D101">
+        <v>-0.01086468900542325</v>
+      </c>
+      <c r="E101">
+        <v>0.03884224871195005</v>
+      </c>
+      <c r="F101">
+        <v>-0.0163026215424796</v>
+      </c>
+      <c r="G101">
+        <v>-0.0168098413649612</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
